--- a/data/processed/state_overviews/maryland_overview.xlsx
+++ b/data/processed/state_overviews/maryland_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>2487</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2,487</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Allegany County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>42</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Anne Arundel County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>195</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Baltimore County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>236</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Baltimore city</t>
         </is>
       </c>
-      <c r="B5">
-        <v>447</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Calvert County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>29</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Caroline County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>20</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Carroll County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>52</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Cecil County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>34</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Charles County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>53</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Dorchester County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>20</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Frederick County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>92</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Garrett County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>20</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Harford County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>81</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Howard County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>126</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Kent County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>21</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Montgomery County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>513</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Prince George's County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>196</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Queen Anne's County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>26</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Somerset County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>15</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>St. Mary's County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>40</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Talbot County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>45</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Washington County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>96</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Wicomico County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>61</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Worcester County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>27</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1175,6 +1225,38 @@
       <c r="F25" t="inlineStr">
         <is>
           <t>77.78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2,487</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$6,127,216,573</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.58%</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-15.15%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>69.08%</t>
         </is>
       </c>
     </row>
@@ -1229,8 +1311,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>362</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1259,8 +1343,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>273</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1289,8 +1375,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B4">
-        <v>297</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1319,8 +1407,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B5">
-        <v>156</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1349,8 +1439,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B6">
-        <v>191</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1379,8 +1471,10 @@
           <t>Congressional District 6</t>
         </is>
       </c>
-      <c r="B7">
-        <v>304</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1409,8 +1503,10 @@
           <t>Congressional District 7</t>
         </is>
       </c>
-      <c r="B8">
-        <v>448</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1439,8 +1535,10 @@
           <t>Congressional District 8</t>
         </is>
       </c>
-      <c r="B9">
-        <v>452</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1469,8 +1567,10 @@
           <t>Delegate District (at Large)</t>
         </is>
       </c>
-      <c r="B10">
-        <v>4</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1499,8 +1599,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B11">
-        <v>2487</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2,487</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1574,8 +1676,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>776</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1604,8 +1708,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>679</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1634,8 +1740,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>352</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1664,8 +1772,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>189</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1694,8 +1804,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>357</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1724,8 +1836,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>134</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1754,8 +1868,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>2487</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2,487</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1829,8 +1945,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>227</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1859,8 +1977,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>233</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1889,8 +2009,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>108</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1919,8 +2041,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>251</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1949,8 +2073,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>15</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1979,8 +2105,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>816</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2009,8 +2137,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>29</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2039,8 +2169,10 @@
           <t>Mutual/Membership Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>2</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2069,8 +2201,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B10">
-        <v>221</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2099,8 +2233,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B11">
-        <v>35</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2129,8 +2265,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B12">
-        <v>531</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2159,8 +2297,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B13">
-        <v>19</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2189,8 +2329,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B14">
-        <v>2487</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2,487</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/maryland_overview.xlsx
+++ b/data/processed/state_overviews/maryland_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,391 +431,391 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Allegany County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$35,699,469</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.54%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-28.46%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>80.95%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Anne Arundel County</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>2,487</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$378,913,128</t>
+          <t>$6,127,216,573</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.15%</t>
+          <t>8.58%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-6.92%</t>
+          <t>-15.15%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>62.05%</t>
+          <t>69.08%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Baltimore County</t>
+          <t>Allegany County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$315,002,407</t>
+          <t>$35,699,469</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.58%</t>
+          <t>4.54%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-16.82%</t>
+          <t>-28.46%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>71.61%</t>
+          <t>80.95%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Baltimore city</t>
+          <t>Anne Arundel County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>195</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$2,675,479,642</t>
+          <t>$378,913,128</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.05%</t>
+          <t>9.15%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-18.22%</t>
+          <t>-6.92%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>71.36%</t>
+          <t>62.05%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Calvert County</t>
+          <t>Baltimore County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>236</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$10,976,834</t>
+          <t>$315,002,407</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.33%</t>
+          <t>6.58%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-9.13%</t>
+          <t>-16.82%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>72.41%</t>
+          <t>71.61%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Caroline County</t>
+          <t>Baltimore city</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>447</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$19,743,417</t>
+          <t>$2,675,479,642</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25.10%</t>
+          <t>5.05%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-5.40%</t>
+          <t>-18.22%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>65.00%</t>
+          <t>71.36%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Carroll County</t>
+          <t>Calvert County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$53,210,864</t>
+          <t>$10,976,834</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.89%</t>
+          <t>5.33%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-17.37%</t>
+          <t>-9.13%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>72.41%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cecil County</t>
+          <t>Caroline County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$16,255,429</t>
+          <t>$19,743,417</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.76%</t>
+          <t>25.10%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-26.68%</t>
+          <t>-5.40%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>70.59%</t>
+          <t>65.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Charles County</t>
+          <t>Carroll County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$54,923,788</t>
+          <t>$53,210,864</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.50%</t>
+          <t>8.89%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-33.94%</t>
+          <t>-17.37%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>79.25%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dorchester County</t>
+          <t>Cecil County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$15,203,105</t>
+          <t>$16,255,429</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>30.19%</t>
+          <t>10.76%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-20.09%</t>
+          <t>-26.68%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>70.59%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Frederick County</t>
+          <t>Charles County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$83,893,530</t>
+          <t>$54,923,788</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.69%</t>
+          <t>2.50%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-8.02%</t>
+          <t>-33.94%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>63.04%</t>
+          <t>79.25%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Garrett County</t>
+          <t>Dorchester County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -825,438 +825,470 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$22,034,238</t>
+          <t>$15,203,105</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.99%</t>
+          <t>30.19%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-38.46%</t>
+          <t>-20.09%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Harford County</t>
+          <t>Frederick County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$63,325,603</t>
+          <t>$83,893,530</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11.98%</t>
+          <t>10.69%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-19.20%</t>
+          <t>-8.02%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>71.60%</t>
+          <t>63.04%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Howard County</t>
+          <t>Garrett County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$201,961,017</t>
+          <t>$22,034,238</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.81%</t>
+          <t>10.99%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-11.13%</t>
+          <t>-38.46%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>65.87%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kent County</t>
+          <t>Harford County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$12,975,413</t>
+          <t>$63,325,603</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>23.90%</t>
+          <t>11.98%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-5.38%</t>
+          <t>-19.20%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>71.60%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Montgomery County</t>
+          <t>Howard County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$1,591,683,195</t>
+          <t>$201,961,017</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>9.52%</t>
+          <t>8.81%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-10.24%</t>
+          <t>-11.13%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>65.30%</t>
+          <t>65.87%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Prince George's County</t>
+          <t>Kent County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$215,589,708</t>
+          <t>$12,975,413</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12.43%</t>
+          <t>23.90%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-20.96%</t>
+          <t>-5.38%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>69.90%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Queen Anne's County</t>
+          <t>Montgomery County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>513</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$10,759,984</t>
+          <t>$1,591,683,195</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5.36%</t>
+          <t>9.52%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-19.30%</t>
+          <t>-10.24%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>84.62%</t>
+          <t>65.30%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Somerset County</t>
+          <t>Prince George's County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>196</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$25,201,364</t>
+          <t>$215,589,708</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10.81%</t>
+          <t>12.43%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-53.01%</t>
+          <t>-20.96%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>93.33%</t>
+          <t>69.90%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>St. Mary's County</t>
+          <t>Queen Anne's County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$19,648,030</t>
+          <t>$10,759,984</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12.92%</t>
+          <t>5.36%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-8.64%</t>
+          <t>-19.30%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>84.62%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Talbot County</t>
+          <t>Somerset County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$129,742,889</t>
+          <t>$25,201,364</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9.43%</t>
+          <t>10.81%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-27.68%</t>
+          <t>-53.01%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>93.33%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Washington County</t>
+          <t>St. Mary's County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$75,021,894</t>
+          <t>$19,648,030</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>8.69%</t>
+          <t>12.92%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-14.37%</t>
+          <t>-8.64%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>62.50%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Wicomico County</t>
+          <t>Talbot County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$87,814,272</t>
+          <t>$129,742,889</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9.34%</t>
+          <t>9.43%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-21.45%</t>
+          <t>-27.68%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>75.41%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Worcester County</t>
+          <t>Washington County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$12,157,353</t>
+          <t>$75,021,894</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>7.87%</t>
+          <t>8.69%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-43.80%</t>
+          <t>-14.37%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Wicomico County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2,487</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$6,127,216,573</t>
+          <t>$87,814,272</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>8.58%</t>
+          <t>9.34%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-15.15%</t>
+          <t>-21.45%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>69.08%</t>
+          <t>75.41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Worcester County</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$12,157,353</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.87%</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>-43.80%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1276,352 +1308,384 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$394,928,017</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.86%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-23.21%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>72.65%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>2,487</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,910,427,435</t>
+          <t>$6,127,216,573</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.32%</t>
+          <t>8.58%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-11.06%</t>
+          <t>-15.15%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>68.13%</t>
+          <t>69.08%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>362</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$570,107,068</t>
+          <t>$394,928,017</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.79%</t>
+          <t>10.86%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-8.75%</t>
+          <t>-23.21%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>64.31%</t>
+          <t>72.65%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>273</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$155,587,447</t>
+          <t>$1,910,427,435</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.48%</t>
+          <t>7.32%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-22.29%</t>
+          <t>-11.06%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>70.51%</t>
+          <t>68.13%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>297</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$162,115,075</t>
+          <t>$570,107,068</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.10%</t>
+          <t>8.79%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-16.06%</t>
+          <t>-8.75%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>69.11%</t>
+          <t>64.31%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Congressional District 6</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$259,609,551</t>
+          <t>$155,587,447</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.69%</t>
+          <t>12.48%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-16.07%</t>
+          <t>-22.29%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>69.74%</t>
+          <t>70.51%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Congressional District 7</t>
+          <t>5th Congressional district</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>191</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$1,130,191,825</t>
+          <t>$162,115,075</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.36%</t>
+          <t>9.10%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-21.22%</t>
+          <t>-16.06%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>73.88%</t>
+          <t>69.11%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Congressional District 8</t>
+          <t>6th Congressional district</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>304</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$1,543,158,570</t>
+          <t>$259,609,551</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.72%</t>
+          <t>8.69%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-9.96%</t>
+          <t>-16.07%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>64.16%</t>
+          <t>69.74%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Delegate District (at Large)</t>
+          <t>7th Congressional district</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>448</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$1,091,585</t>
+          <t>$1,130,191,825</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.17%</t>
+          <t>4.36%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-28.77%</t>
+          <t>-21.22%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>73.88%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>8th Congressional district</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2,487</t>
+          <t>452</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$6,127,216,573</t>
+          <t>$1,543,158,570</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.58%</t>
+          <t>9.72%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-15.15%</t>
+          <t>-9.96%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>69.08%</t>
+          <t>64.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Delegate district (at large)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$1,091,585</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.17%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-28.77%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1646,34 +1710,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1705,128 +1769,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>357</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$597,146,331</t>
+          <t>$4,884,064,432</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.91%</t>
+          <t>4.58%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-15.15%</t>
+          <t>-3.91%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>69.51%</t>
+          <t>60.78%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>679</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$100,576,643</t>
+          <t>$597,146,331</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.49%</t>
+          <t>8.91%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-23.00%</t>
+          <t>-15.15%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>69.51%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>352</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$437,226,211</t>
+          <t>$100,576,643</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.74%</t>
+          <t>9.49%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-9.53%</t>
+          <t>-23.00%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>64.55%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>189</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$4,884,064,432</t>
+          <t>$437,226,211</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.58%</t>
+          <t>7.74%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-3.91%</t>
+          <t>-9.53%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>60.78%</t>
+          <t>64.55%</t>
         </is>
       </c>
     </row>
@@ -1915,34 +1979,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1974,7 +2038,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2006,7 +2070,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2038,7 +2102,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2102,7 +2166,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2134,7 +2198,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2166,160 +2230,160 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mutual/Membership Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$179,538</t>
+          <t>$616,962,728</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>18.66%</t>
+          <t>10.61%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-11.56%</t>
+          <t>-22.62%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>70.14%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$616,962,728</t>
+          <t>$19,033,606</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.61%</t>
+          <t>9.16%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-22.62%</t>
+          <t>-10.30%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>70.14%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Mutual/membership benefit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$19,033,606</t>
+          <t>$179,538</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.16%</t>
+          <t>18.66%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-10.30%</t>
+          <t>-11.56%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,282,141,280</t>
+          <t>$1,389,272,584</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.05%</t>
+          <t>8.41%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-11.43%</t>
+          <t>-2.59%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>65.91%</t>
+          <t>63.16%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>531</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$1,389,272,584</t>
+          <t>$1,282,141,280</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.41%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-2.59%</t>
+          <t>-11.43%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>63.16%</t>
+          <t>65.91%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/maryland_overview.xlsx
+++ b/data/processed/state_overviews/maryland_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>69.08%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>2,487</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$6,127,216,573</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>8.58%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-15.15%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>69.08%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>69.08%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>2,487</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$6,127,216,573</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.58%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-15.15%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>69.08%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>80.95%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>42</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$35,699,469</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>4.54%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-28.46%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>80.95%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>62.05%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>195</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$378,913,128</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>9.15%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-6.92%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>62.05%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>71.61%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>236</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$315,002,407</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>6.58%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-16.82%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>71.61%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>71.36%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>447</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$2,675,479,642</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>5.05%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-18.22%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>71.36%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>72.41%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$10,976,834</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>5.33%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-9.13%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>72.41%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>65.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$19,743,417</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>25.10%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-5.40%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>65.00%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>52</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$53,210,864</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>8.89%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-17.37%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>70.59%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$16,255,429</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>10.76%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-26.68%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>70.59%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>79.25%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>53</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$54,923,788</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2.50%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-33.94%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>79.25%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$15,203,105</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>30.19%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-20.09%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>63.04%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>92</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$83,893,530</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>10.69%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-8.02%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>63.04%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$22,034,238</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>10.99%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-38.46%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>71.60%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>81</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$63,325,603</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>11.98%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-19.20%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>71.60%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>65.87%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>126</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$201,961,017</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>8.81%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-11.13%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>65.87%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$12,975,413</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>23.90%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-5.38%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>65.30%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>513</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$1,591,683,195</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>9.52%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-10.24%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>65.30%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>69.90%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>196</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$215,589,708</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>12.43%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-20.96%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>69.90%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>84.62%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$10,759,984</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>5.36%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-19.30%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>84.62%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>93.33%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$25,201,364</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>10.81%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-53.01%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>93.33%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$19,648,030</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>12.92%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-8.64%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>62.50%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$129,742,889</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>9.43%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-27.68%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>96</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$75,021,894</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>8.69%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-14.37%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>75.41%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>61</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$87,814,272</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>9.34%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-21.45%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>75.41%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$12,157,353</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>7.87%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-43.80%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -1313,27 +1313,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -1345,27 +1345,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -1377,315 +1377,315 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>69.08%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>2,487</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$6,127,216,573</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.58%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-15.15%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>69.08%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>72.65%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>362</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$394,928,017</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>10.86%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-23.21%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>72.65%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>68.13%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>273</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$1,910,427,435</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>7.32%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-11.06%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>68.13%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>64.31%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>297</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$570,107,068</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>8.79%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-8.75%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>64.31%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>70.51%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>156</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$155,587,447</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>12.48%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-22.29%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>70.51%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>69.11%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>191</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$162,115,075</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>9.10%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-16.06%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>69.11%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6th Congressional district</t>
+          <t>Congressional District 6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>69.74%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>304</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$259,609,551</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>8.69%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-16.07%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>69.74%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7th Congressional district</t>
+          <t>Congressional District 7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>73.88%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>448</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$1,130,191,825</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>4.36%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-21.22%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>73.88%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8th Congressional district</t>
+          <t>Congressional District 8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>64.16%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>452</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$1,543,158,570</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>9.72%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-9.96%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>64.16%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Delegate district (at large)</t>
+          <t>Delegate District (at Large)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$1,091,585</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>11.17%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-28.77%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1710,187 +1710,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>71.01%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>776</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$98,452,098</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>10.29%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-21.69%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>71.01%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>69.51%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$4,884,064,432</t>
+          <t>679</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.58%</t>
+          <t>$597,146,331</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-3.91%</t>
+          <t>8.91%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>60.78%</t>
+          <t>-15.15%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$597,146,331</t>
+          <t>352</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.91%</t>
+          <t>$100,576,643</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-15.15%</t>
+          <t>9.49%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>69.51%</t>
+          <t>-23.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>64.55%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$100,576,643</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.49%</t>
+          <t>$437,226,211</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-23.00%</t>
+          <t>7.74%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>-9.53%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>60.78%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$437,226,211</t>
+          <t>357</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.74%</t>
+          <t>$4,884,064,432</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-9.53%</t>
+          <t>4.58%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>64.55%</t>
+          <t>-3.91%</t>
         </is>
       </c>
     </row>
@@ -1902,27 +1902,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>68.66%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>134</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$9,750,858</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>28.33%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-21.51%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>68.66%</t>
         </is>
       </c>
     </row>
@@ -1934,27 +1934,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>69.08%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>2,487</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$6,127,216,573</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>8.58%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-15.15%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>69.08%</t>
         </is>
       </c>
     </row>
@@ -1979,155 +1979,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>75.33%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>227</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$112,805,894</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.84%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-18.95%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>75.33%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>63.95%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>233</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$248,396,639</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.32%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-7.70%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>63.95%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>52.78%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>108</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$121,578,975</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>12.85%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-1.68%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>52.78%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>67.33%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>251</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$970,861,783</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>6.48%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-12.32%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>67.33%</t>
         </is>
       </c>
     </row>
@@ -2139,251 +2139,251 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>53.33%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$41,720,829</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1.73%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-0.52%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>53.33%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>73.65%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>816</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$926,775,977</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>8.34%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-23.21%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>73.65%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>68.97%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$397,486,740</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>7.28%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-10.13%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>68.97%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Mutual/Membership Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$616,962,728</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.61%</t>
+          <t>$179,538</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-22.62%</t>
+          <t>18.66%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>70.14%</t>
+          <t>-11.56%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>70.14%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$19,033,606</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.16%</t>
+          <t>$616,962,728</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-10.30%</t>
+          <t>10.61%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>-22.62%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mutual/membership benefit</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>71.43%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$179,538</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>18.66%</t>
+          <t>$19,033,606</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-11.56%</t>
+          <t>9.16%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>-10.30%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>65.91%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,389,272,584</t>
+          <t>531</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.41%</t>
+          <t>$1,282,141,280</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-2.59%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>63.16%</t>
+          <t>-11.43%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>63.16%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$1,282,141,280</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.05%</t>
+          <t>$1,389,272,584</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-11.43%</t>
+          <t>8.41%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>65.91%</t>
+          <t>-2.59%</t>
         </is>
       </c>
     </row>
@@ -2395,27 +2395,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>69.08%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>2,487</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$6,127,216,573</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>8.58%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-15.15%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>69.08%</t>
         </is>
       </c>
     </row>
